--- a/LOUMA phase2.xlsx
+++ b/LOUMA phase2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="199">
   <si>
     <t>DRV</t>
   </si>
@@ -61,9 +61,6 @@
     <t>CENTRE</t>
   </si>
   <si>
-    <t>DR2</t>
-  </si>
-  <si>
     <t>GUENTH PATHE</t>
   </si>
   <si>
@@ -262,21 +259,6 @@
     <t>13.6950970, -12.0736540</t>
   </si>
   <si>
-    <t>150 km</t>
-  </si>
-  <si>
-    <t>75 km</t>
-  </si>
-  <si>
-    <t>130 km</t>
-  </si>
-  <si>
-    <t>90 km</t>
-  </si>
-  <si>
-    <t>139 km</t>
-  </si>
-  <si>
     <t>DANSOKHO</t>
   </si>
   <si>
@@ -313,21 +295,6 @@
     <t>pvt_sfof0304</t>
   </si>
   <si>
-    <t>Thiadiaye</t>
-  </si>
-  <si>
-    <t>Nguéniène</t>
-  </si>
-  <si>
-    <t>Mékhé</t>
-  </si>
-  <si>
-    <t>Touba toul</t>
-  </si>
-  <si>
-    <t>Nguékhokh</t>
-  </si>
-  <si>
     <t>14.4197869,-16.7078861</t>
   </si>
   <si>
@@ -344,27 +311,6 @@
   </si>
   <si>
     <t>14.512291,-17.004678</t>
-  </si>
-  <si>
-    <t>(60 km)</t>
-  </si>
-  <si>
-    <t>(62 km)</t>
-  </si>
-  <si>
-    <t>(81 km)</t>
-  </si>
-  <si>
-    <t>(198 km)</t>
-  </si>
-  <si>
-    <t>(146 km)</t>
-  </si>
-  <si>
-    <t>(24 km)</t>
-  </si>
-  <si>
-    <t>Ndiaganiao</t>
   </si>
   <si>
     <t>DR CENTRE</t>
@@ -507,12 +453,6 @@
     <t>DIOP</t>
   </si>
   <si>
-    <t>BASSOUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILALY  </t>
-  </si>
-  <si>
     <t>Pvt_tdc590013</t>
   </si>
   <si>
@@ -522,9 +462,6 @@
     <t>Pvt_tdc590120</t>
   </si>
   <si>
-    <t>Pvt_tdc590016</t>
-  </si>
-  <si>
     <t>OUMAR KELLY</t>
   </si>
   <si>
@@ -532,13 +469,172 @@
   </si>
   <si>
     <t>CHEIKH AMAR</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.972480,-16.715768</t>
+  </si>
+  <si>
+    <t>120km</t>
+  </si>
+  <si>
+    <t>SIMBANDI BALANTE</t>
+  </si>
+  <si>
+    <t>12.558904, -15.774352</t>
+  </si>
+  <si>
+    <t>60km</t>
+  </si>
+  <si>
+    <t>SAFANE</t>
+  </si>
+  <si>
+    <t>YARANG</t>
+  </si>
+  <si>
+    <t>12.30483, -15.519200</t>
+  </si>
+  <si>
+    <t>150km</t>
+  </si>
+  <si>
+    <t>75km</t>
+  </si>
+  <si>
+    <t>130km</t>
+  </si>
+  <si>
+    <t>90km</t>
+  </si>
+  <si>
+    <t>139km</t>
+  </si>
+  <si>
+    <t>92km</t>
+  </si>
+  <si>
+    <t>SAMINE</t>
+  </si>
+  <si>
+    <t>12.498385,-15.634138</t>
+  </si>
+  <si>
+    <t>79km</t>
+  </si>
+  <si>
+    <t>ASSOUMOUNE</t>
+  </si>
+  <si>
+    <t>12.474962,-15745332</t>
+  </si>
+  <si>
+    <t>78km</t>
+  </si>
+  <si>
+    <t>THIADIAYE</t>
+  </si>
+  <si>
+    <t>NDIAGANIAO</t>
+  </si>
+  <si>
+    <t>NGENIENE</t>
+  </si>
+  <si>
+    <t>MEKHE</t>
+  </si>
+  <si>
+    <t>TOUBA TOUL</t>
+  </si>
+  <si>
+    <t>NGUEKHOKH</t>
+  </si>
+  <si>
+    <t>60 km</t>
+  </si>
+  <si>
+    <t>62 km</t>
+  </si>
+  <si>
+    <t>81 km</t>
+  </si>
+  <si>
+    <t>198 km</t>
+  </si>
+  <si>
+    <t>146 km</t>
+  </si>
+  <si>
+    <t>24 km</t>
+  </si>
+  <si>
+    <t>PVT GIEZIGTELECOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINTOU  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEAN EMMANUEL CHRISTOPHOR </t>
+  </si>
+  <si>
+    <t>BADJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATOU </t>
+  </si>
+  <si>
+    <t>DIOUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDEYE FATOU  </t>
+  </si>
+  <si>
+    <t>MANE</t>
+  </si>
+  <si>
+    <t>pvt_zigtel _ravt _zigt068</t>
+  </si>
+  <si>
+    <t>pvt_zigtel0351</t>
+  </si>
+  <si>
+    <t>pvt_zigtel0316</t>
+  </si>
+  <si>
+    <t>pvt_zigtel281</t>
+  </si>
+  <si>
+    <t>DR SUD</t>
+  </si>
+  <si>
+    <t>MAMADOU OUALY</t>
+  </si>
+  <si>
+    <t>MAMADOU BINTE DIALLO</t>
+  </si>
+  <si>
+    <t>GIEZIGTELECOM</t>
+  </si>
+  <si>
+    <t>BACARY KAMBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUSMANE </t>
+  </si>
+  <si>
+    <t>DIAGNE</t>
+  </si>
+  <si>
+    <t>Pvt_tdc590060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,8 +778,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,8 +977,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1051,51 +1165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1250,6 +1319,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1300,16 +1380,46 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,42 +1437,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1684,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1698,7 +1781,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,489 +1798,472 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="28"/>
+      <c r="B21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
+      <c r="B23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
+      <c r="B24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="27"/>
+      <c r="B31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A32:A37"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
@@ -2211,18 +2277,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2230,201 +2296,201 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5">
+        <v>773097086</v>
+      </c>
+      <c r="G2" s="2">
+        <v>777410048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="12">
-        <v>773097086</v>
-      </c>
-      <c r="G2" s="12">
-        <v>777410048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="6">
+        <v>775545556</v>
+      </c>
+      <c r="G3" s="3">
+        <v>787656877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="13">
-        <v>775545556</v>
-      </c>
-      <c r="G3" s="13">
-        <v>787656877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="6">
+        <v>773460373</v>
+      </c>
+      <c r="G4" s="3">
+        <v>776019823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="13">
-        <v>773460373</v>
-      </c>
-      <c r="G4" s="13">
-        <v>776019823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>770617096</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="3">
         <v>782981141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>149</v>
+      <c r="B6" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2">
         <v>777147559</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="2">
         <v>788255458</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
-        <v>149</v>
+      <c r="A7" s="28"/>
+      <c r="B7" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3">
         <v>777951348</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="3">
         <v>789166919</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F8" s="3">
         <v>782190772</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="3">
         <v>789151415</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="3">
-        <v>789111270</v>
-      </c>
-      <c r="G9" s="37">
-        <v>789166997</v>
+        <v>198</v>
+      </c>
+      <c r="F9" s="26">
+        <v>778113461</v>
+      </c>
+      <c r="G9" s="3">
+        <v>789166945</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>150</v>
+      <c r="B10" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F10" s="2">
         <v>778847933</v>
@@ -2434,16 +2500,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F11" s="3">
         <v>782651638</v>
@@ -2453,16 +2519,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F12" s="3">
         <v>774790213</v>
@@ -2472,16 +2538,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3">
         <v>783905048</v>
@@ -2491,176 +2557,179 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="2">
+        <v>777509848</v>
+      </c>
+      <c r="G14" s="2">
+        <v>771545210</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="3">
+        <v>776919692</v>
+      </c>
+      <c r="G15" s="3">
+        <v>773958904</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="3">
+        <v>783008307</v>
+      </c>
+      <c r="G16" s="3">
+        <v>776950987</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="4">
+        <v>780123961</v>
+      </c>
+      <c r="G17" s="3">
+        <v>781825193</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>125</v>
+      <c r="A18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F18" s="3">
         <v>778679190</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="2">
         <v>786180521</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3">
         <v>771994713</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="3">
         <v>786183517</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F20" s="3">
         <v>784119644</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="3">
         <v>772118585</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="11"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4">
         <v>787389275</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="4">
         <v>787389275</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2669,226 +2738,278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="19">
+        <v>776382705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="18">
+        <v>777401785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18">
+        <v>772579898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="35"/>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="20">
+        <v>781816827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="29">
-        <v>776382705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="D7" s="19">
+        <v>778196895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="28">
-        <v>777401785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="D8" s="18">
+        <v>776372229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="28">
-        <v>772579898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="D9" s="18">
+        <v>776665352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="34"/>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="30">
-        <v>781816827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="D10" s="20">
+        <v>783441820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="34"/>
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="29">
-        <v>778196895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="C12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="28">
-        <v>776372229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="C13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="28">
-        <v>776665352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="30">
-        <v>783441820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="30">
+      <c r="C14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="20">
         <v>782402937</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="A15" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="15">
         <v>775699621</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="A16" s="34"/>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="14">
         <v>776440917</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="A17" s="34"/>
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="14">
         <v>781287163</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="A18" s="35"/>
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="12">
         <v>782352114</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="15">
+        <v>773335050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="14">
+        <v>776441287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="14">
+        <v>775451818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="35"/>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="25">
+        <v>775277993</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
